--- a/New/ExcelToCSV/Table/Builds222.xlsx
+++ b/New/ExcelToCSV/Table/Builds222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23400" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -84,6 +84,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -93,13 +96,16 @@
     <t>大本营LV2</t>
   </si>
   <si>
-    <t>大本营LV3</t>
-  </si>
-  <si>
-    <t>大本营LV4</t>
-  </si>
-  <si>
-    <t>大本营LV5</t>
+    <t>abcd,efghijklmn</t>
+  </si>
+  <si>
+    <t>hijkl"mn"opq</t>
+  </si>
+  <si>
+    <t>大,本营LV5</t>
+  </si>
+  <si>
+    <t>sld,jg"l,j"gl</t>
   </si>
 </sst>
 </file>
@@ -277,12 +283,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -765,24 +771,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1143,19 +1140,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.625"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:7">
+    <row r="1" ht="22.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,12 +1162,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="22.5" spans="1:7">
+    <row r="2" ht="22.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1180,202 +1173,109 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="22.5" spans="1:7">
+    <row r="3" ht="22.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="22.5" spans="1:7">
+    <row r="4" ht="22.5" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" spans="1:7">
-      <c r="A5" s="4">
+    <row r="5" ht="22.5" spans="1:3">
+      <c r="A5" s="2">
         <v>100000</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="22.5" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" ht="22.5" spans="1:3">
+      <c r="A6" s="2">
         <v>100001</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="22.5" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" ht="22.5" spans="1:3">
+      <c r="A7" s="2">
         <v>100002</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
     </row>
-    <row r="8" ht="22.5" spans="1:7">
-      <c r="A8" s="4">
+    <row r="8" ht="22.5" spans="1:3">
+      <c r="A8" s="2">
         <v>100003</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
     </row>
-    <row r="9" ht="22.5" spans="1:7">
-      <c r="A9" s="4">
+    <row r="9" ht="22.5" spans="1:3">
+      <c r="A9" s="2">
         <v>100004</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="22.5" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.5" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="22.5" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="22.5" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="22.5" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="22.5" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="22.5" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="22.5" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="22.5" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="22.5" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="22.5" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+    <row r="10" ht="37" customHeight="1" spans="1:3">
+      <c r="A10" s="2">
+        <v>100005</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1 C3:C9 A3:A9 A1">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 C2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 A10">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))=0</formula>
+      <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New/ExcelToCSV/Table/Builds222.xlsx
+++ b/New/ExcelToCSV/Table/Builds222.xlsx
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1264,17 +1264,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1 C3:C9 A3:A9 A1">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="0" priority="11">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 C2">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 A10">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
